--- a/Foreign_Holdings.xlsx
+++ b/Foreign_Holdings.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foreign Holdings in Brazil" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart (Brazil)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>date</t>
   </si>
@@ -25,1020 +26,547 @@
     <t>2007-01-31</t>
   </si>
   <si>
-    <t>7.95</t>
-  </si>
-  <si>
     <t>2007-02-28</t>
   </si>
   <si>
-    <t>8.84</t>
-  </si>
-  <si>
     <t>2007-03-31</t>
   </si>
   <si>
-    <t>10.19</t>
-  </si>
-  <si>
     <t>2007-04-30</t>
   </si>
   <si>
-    <t>11.04</t>
-  </si>
-  <si>
     <t>2007-05-31</t>
   </si>
   <si>
-    <t>12.64</t>
-  </si>
-  <si>
     <t>2007-06-30</t>
   </si>
   <si>
-    <t>17.07</t>
-  </si>
-  <si>
     <t>2007-07-31</t>
   </si>
   <si>
-    <t>27.83</t>
-  </si>
-  <si>
     <t>2007-08-31</t>
   </si>
   <si>
-    <t>28.53</t>
-  </si>
-  <si>
     <t>2007-09-30</t>
   </si>
   <si>
-    <t>32.35</t>
-  </si>
-  <si>
     <t>2007-10-31</t>
   </si>
   <si>
-    <t>35.76</t>
-  </si>
-  <si>
     <t>2007-11-30</t>
   </si>
   <si>
-    <t>34.06</t>
-  </si>
-  <si>
     <t>2007-12-31</t>
   </si>
   <si>
-    <t>35.22</t>
-  </si>
-  <si>
     <t>2008-01-31</t>
   </si>
   <si>
-    <t>36.05</t>
-  </si>
-  <si>
     <t>2008-02-29</t>
   </si>
   <si>
-    <t>40.15</t>
-  </si>
-  <si>
     <t>2008-03-31</t>
   </si>
   <si>
-    <t>42.26</t>
-  </si>
-  <si>
     <t>2008-04-30</t>
   </si>
   <si>
-    <t>45.76</t>
-  </si>
-  <si>
     <t>2008-05-31</t>
   </si>
   <si>
-    <t>48.36</t>
-  </si>
-  <si>
     <t>2008-06-30</t>
   </si>
   <si>
-    <t>49.41</t>
-  </si>
-  <si>
     <t>2008-07-31</t>
   </si>
   <si>
-    <t>58.85</t>
-  </si>
-  <si>
     <t>2008-08-31</t>
   </si>
   <si>
-    <t>58.08</t>
-  </si>
-  <si>
     <t>2008-09-30</t>
   </si>
   <si>
-    <t>48.5</t>
-  </si>
-  <si>
     <t>2008-10-31</t>
   </si>
   <si>
-    <t>38.26</t>
-  </si>
-  <si>
     <t>2008-11-30</t>
   </si>
   <si>
-    <t>36.87</t>
-  </si>
-  <si>
     <t>2008-12-31</t>
   </si>
   <si>
-    <t>39.17</t>
-  </si>
-  <si>
     <t>2009-01-31</t>
   </si>
   <si>
-    <t>37.4</t>
-  </si>
-  <si>
     <t>2009-02-28</t>
   </si>
   <si>
-    <t>35.84</t>
-  </si>
-  <si>
     <t>2009-03-31</t>
   </si>
   <si>
     <t>2009-04-30</t>
   </si>
   <si>
-    <t>36.86</t>
-  </si>
-  <si>
     <t>2009-05-31</t>
   </si>
   <si>
-    <t>42.28</t>
-  </si>
-  <si>
     <t>2009-06-30</t>
   </si>
   <si>
-    <t>45.15</t>
-  </si>
-  <si>
     <t>2009-07-31</t>
   </si>
   <si>
-    <t>48.07</t>
-  </si>
-  <si>
     <t>2009-08-31</t>
   </si>
   <si>
-    <t>51.65</t>
-  </si>
-  <si>
     <t>2009-09-30</t>
   </si>
   <si>
-    <t>60.87</t>
-  </si>
-  <si>
     <t>2009-10-31</t>
   </si>
   <si>
-    <t>65.06</t>
-  </si>
-  <si>
     <t>2009-11-30</t>
   </si>
   <si>
-    <t>66.75</t>
-  </si>
-  <si>
     <t>2009-12-31</t>
   </si>
   <si>
-    <t>70.73</t>
-  </si>
-  <si>
     <t>2010-01-31</t>
   </si>
   <si>
-    <t>69.25</t>
-  </si>
-  <si>
     <t>2010-02-28</t>
   </si>
   <si>
-    <t>75.89</t>
-  </si>
-  <si>
     <t>2010-03-31</t>
   </si>
   <si>
-    <t>79.8</t>
-  </si>
-  <si>
     <t>2010-04-30</t>
   </si>
   <si>
-    <t>84.58</t>
-  </si>
-  <si>
     <t>2010-05-31</t>
   </si>
   <si>
-    <t>83.75</t>
-  </si>
-  <si>
     <t>2010-06-30</t>
   </si>
   <si>
-    <t>89.2</t>
-  </si>
-  <si>
     <t>2010-07-31</t>
   </si>
   <si>
-    <t>91.06</t>
-  </si>
-  <si>
     <t>2010-08-31</t>
   </si>
   <si>
-    <t>96.91</t>
-  </si>
-  <si>
     <t>2010-09-30</t>
   </si>
   <si>
-    <t>104.35</t>
-  </si>
-  <si>
     <t>2010-10-31</t>
   </si>
   <si>
-    <t>104.81</t>
-  </si>
-  <si>
     <t>2010-11-30</t>
   </si>
   <si>
-    <t>103.42</t>
-  </si>
-  <si>
     <t>2010-12-31</t>
   </si>
   <si>
-    <t>109.81</t>
-  </si>
-  <si>
     <t>2011-01-31</t>
   </si>
   <si>
-    <t>109.18</t>
-  </si>
-  <si>
     <t>2011-02-28</t>
   </si>
   <si>
-    <t>108.56</t>
-  </si>
-  <si>
     <t>2011-03-31</t>
   </si>
   <si>
-    <t>112.34</t>
-  </si>
-  <si>
     <t>2011-04-30</t>
   </si>
   <si>
-    <t>118.45</t>
-  </si>
-  <si>
     <t>2011-05-31</t>
   </si>
   <si>
-    <t>120.69</t>
-  </si>
-  <si>
     <t>2011-06-30</t>
   </si>
   <si>
-    <t>122.91</t>
-  </si>
-  <si>
     <t>2011-07-31</t>
   </si>
   <si>
-    <t>124.66</t>
-  </si>
-  <si>
     <t>2011-08-31</t>
   </si>
   <si>
-    <t>125.16</t>
-  </si>
-  <si>
     <t>2011-09-30</t>
   </si>
   <si>
-    <t>103.58</t>
-  </si>
-  <si>
     <t>2011-10-31</t>
   </si>
   <si>
-    <t>115.22</t>
-  </si>
-  <si>
     <t>2011-11-30</t>
   </si>
   <si>
-    <t>110.41</t>
-  </si>
-  <si>
     <t>2011-12-31</t>
   </si>
   <si>
-    <t>108.38</t>
-  </si>
-  <si>
     <t>2012-01-31</t>
   </si>
   <si>
-    <t>117.68</t>
-  </si>
-  <si>
     <t>2012-02-29</t>
   </si>
   <si>
-    <t>121.74</t>
-  </si>
-  <si>
     <t>2012-03-31</t>
   </si>
   <si>
-    <t>117.84</t>
-  </si>
-  <si>
     <t>2012-04-30</t>
   </si>
   <si>
-    <t>115.48</t>
-  </si>
-  <si>
     <t>2012-05-31</t>
   </si>
   <si>
-    <t>111.07</t>
-  </si>
-  <si>
     <t>2012-06-30</t>
   </si>
   <si>
-    <t>114.66</t>
-  </si>
-  <si>
     <t>2012-07-31</t>
   </si>
   <si>
-    <t>114.97</t>
-  </si>
-  <si>
     <t>2012-08-31</t>
   </si>
   <si>
-    <t>116.89</t>
-  </si>
-  <si>
     <t>2012-09-30</t>
   </si>
   <si>
-    <t>120.25</t>
-  </si>
-  <si>
     <t>2012-10-31</t>
   </si>
   <si>
-    <t>125.59</t>
-  </si>
-  <si>
     <t>2012-11-30</t>
   </si>
   <si>
-    <t>121.66</t>
-  </si>
-  <si>
     <t>2012-12-31</t>
   </si>
   <si>
-    <t>128.19</t>
-  </si>
-  <si>
     <t>2013-01-31</t>
   </si>
   <si>
-    <t>132.99</t>
-  </si>
-  <si>
     <t>2013-02-28</t>
   </si>
   <si>
-    <t>134.75</t>
-  </si>
-  <si>
     <t>2013-03-31</t>
   </si>
   <si>
-    <t>135.19</t>
-  </si>
-  <si>
     <t>2013-04-30</t>
   </si>
   <si>
-    <t>134.63</t>
-  </si>
-  <si>
     <t>2013-05-31</t>
   </si>
   <si>
-    <t>123.62</t>
-  </si>
-  <si>
     <t>2013-06-30</t>
   </si>
   <si>
-    <t>123.31</t>
-  </si>
-  <si>
     <t>2013-07-31</t>
   </si>
   <si>
-    <t>126.98</t>
-  </si>
-  <si>
     <t>2013-08-31</t>
   </si>
   <si>
-    <t>129.02</t>
-  </si>
-  <si>
     <t>2013-09-30</t>
   </si>
   <si>
-    <t>147.39</t>
-  </si>
-  <si>
     <t>2013-10-31</t>
   </si>
   <si>
-    <t>145.98</t>
-  </si>
-  <si>
     <t>2013-11-30</t>
   </si>
   <si>
-    <t>139.56</t>
-  </si>
-  <si>
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>138.25</t>
-  </si>
-  <si>
     <t>2014-01-31</t>
   </si>
   <si>
-    <t>139</t>
-  </si>
-  <si>
     <t>2014-02-28</t>
   </si>
   <si>
-    <t>146.39</t>
-  </si>
-  <si>
     <t>2014-03-31</t>
   </si>
   <si>
-    <t>158.98</t>
-  </si>
-  <si>
     <t>2014-04-30</t>
   </si>
   <si>
-    <t>164.97</t>
-  </si>
-  <si>
     <t>2014-05-31</t>
   </si>
   <si>
-    <t>164.98</t>
-  </si>
-  <si>
     <t>2014-06-30</t>
   </si>
   <si>
-    <t>173.23</t>
-  </si>
-  <si>
     <t>2014-07-31</t>
   </si>
   <si>
-    <t>170.38</t>
-  </si>
-  <si>
     <t>2014-08-31</t>
   </si>
   <si>
-    <t>174.5</t>
-  </si>
-  <si>
     <t>2014-09-30</t>
   </si>
   <si>
-    <t>164.16</t>
-  </si>
-  <si>
     <t>2014-10-31</t>
   </si>
   <si>
-    <t>168.65</t>
-  </si>
-  <si>
     <t>2014-11-30</t>
   </si>
   <si>
-    <t>164.27</t>
-  </si>
-  <si>
     <t>2014-12-31</t>
   </si>
   <si>
-    <t>153.13</t>
-  </si>
-  <si>
     <t>2015-01-31</t>
   </si>
   <si>
-    <t>161.05</t>
-  </si>
-  <si>
     <t>2015-02-28</t>
   </si>
   <si>
-    <t>158.01</t>
-  </si>
-  <si>
     <t>2015-03-31</t>
   </si>
   <si>
-    <t>146.9</t>
-  </si>
-  <si>
     <t>2015-04-30</t>
   </si>
   <si>
-    <t>158.59</t>
-  </si>
-  <si>
     <t>2015-05-31</t>
   </si>
   <si>
-    <t>155.24</t>
-  </si>
-  <si>
     <t>2015-06-30</t>
   </si>
   <si>
-    <t>159.06</t>
-  </si>
-  <si>
     <t>2015-07-31</t>
   </si>
   <si>
-    <t>141.48</t>
-  </si>
-  <si>
     <t>2015-08-31</t>
   </si>
   <si>
-    <t>134.93</t>
-  </si>
-  <si>
     <t>2015-09-30</t>
   </si>
   <si>
-    <t>123.61</t>
-  </si>
-  <si>
     <t>2015-10-31</t>
   </si>
   <si>
-    <t>124.24</t>
-  </si>
-  <si>
     <t>2015-11-30</t>
   </si>
   <si>
-    <t>128.99</t>
-  </si>
-  <si>
     <t>2015-12-31</t>
   </si>
   <si>
-    <t>125.69</t>
-  </si>
-  <si>
     <t>2016-01-31</t>
   </si>
   <si>
-    <t>123.24</t>
-  </si>
-  <si>
     <t>2016-02-29</t>
   </si>
   <si>
-    <t>118.2</t>
-  </si>
-  <si>
     <t>2016-03-31</t>
   </si>
   <si>
-    <t>128.26</t>
-  </si>
-  <si>
     <t>2016-04-30</t>
   </si>
   <si>
-    <t>135.13</t>
-  </si>
-  <si>
     <t>2016-05-31</t>
   </si>
   <si>
-    <t>126.13</t>
-  </si>
-  <si>
     <t>2016-06-30</t>
   </si>
   <si>
-    <t>144.91</t>
-  </si>
-  <si>
     <t>2016-07-31</t>
   </si>
   <si>
-    <t>141.44</t>
-  </si>
-  <si>
     <t>2016-08-31</t>
   </si>
   <si>
-    <t>137.43</t>
-  </si>
-  <si>
     <t>2016-09-30</t>
   </si>
   <si>
-    <t>134.07</t>
-  </si>
-  <si>
     <t>2016-10-31</t>
   </si>
   <si>
-    <t>135.72</t>
-  </si>
-  <si>
     <t>2016-11-30</t>
   </si>
   <si>
-    <t>126.31</t>
-  </si>
-  <si>
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>131.43</t>
-  </si>
-  <si>
     <t>2017-01-31</t>
   </si>
   <si>
-    <t>132.7</t>
-  </si>
-  <si>
     <t>2017-02-28</t>
   </si>
   <si>
-    <t>132.64</t>
-  </si>
-  <si>
     <t>2017-03-31</t>
   </si>
   <si>
-    <t>132.2</t>
-  </si>
-  <si>
     <t>2017-04-30</t>
   </si>
   <si>
-    <t>133.98</t>
-  </si>
-  <si>
     <t>2017-05-31</t>
   </si>
   <si>
-    <t>130.13</t>
-  </si>
-  <si>
     <t>2017-06-30</t>
   </si>
   <si>
-    <t>126.09</t>
-  </si>
-  <si>
     <t>2017-07-31</t>
   </si>
   <si>
-    <t>132.42</t>
-  </si>
-  <si>
     <t>2017-08-31</t>
   </si>
   <si>
-    <t>132.16</t>
-  </si>
-  <si>
     <t>2017-09-30</t>
   </si>
   <si>
-    <t>131.65</t>
-  </si>
-  <si>
     <t>2017-10-31</t>
   </si>
   <si>
-    <t>129.38</t>
-  </si>
-  <si>
     <t>2017-11-30</t>
   </si>
   <si>
-    <t>130.69</t>
-  </si>
-  <si>
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>125.68</t>
-  </si>
-  <si>
     <t>2018-01-31</t>
   </si>
   <si>
-    <t>132.59</t>
-  </si>
-  <si>
     <t>2018-02-28</t>
   </si>
   <si>
-    <t>131.89</t>
-  </si>
-  <si>
     <t>2018-03-31</t>
   </si>
   <si>
-    <t>125.57</t>
-  </si>
-  <si>
     <t>2018-04-30</t>
   </si>
   <si>
-    <t>123.41</t>
-  </si>
-  <si>
     <t>2018-05-31</t>
   </si>
   <si>
-    <t>114.76</t>
-  </si>
-  <si>
     <t>2018-06-30</t>
   </si>
   <si>
-    <t>111.05</t>
-  </si>
-  <si>
     <t>2018-07-31</t>
   </si>
   <si>
-    <t>120.66</t>
-  </si>
-  <si>
     <t>2018-08-31</t>
   </si>
   <si>
-    <t>106.71</t>
-  </si>
-  <si>
     <t>2018-09-30</t>
   </si>
   <si>
-    <t>104.56</t>
-  </si>
-  <si>
     <t>2018-10-31</t>
   </si>
   <si>
-    <t>116.38</t>
-  </si>
-  <si>
     <t>2018-11-30</t>
   </si>
   <si>
-    <t>111.75</t>
-  </si>
-  <si>
     <t>2018-12-31</t>
   </si>
   <si>
-    <t>107.8</t>
-  </si>
-  <si>
     <t>2019-01-31</t>
   </si>
   <si>
-    <t>118.76</t>
-  </si>
-  <si>
     <t>2019-02-28</t>
   </si>
   <si>
-    <t>121.02</t>
-  </si>
-  <si>
     <t>2019-03-31</t>
   </si>
   <si>
-    <t>117.54</t>
-  </si>
-  <si>
     <t>2019-04-30</t>
   </si>
   <si>
-    <t>118.43</t>
-  </si>
-  <si>
     <t>2019-05-31</t>
   </si>
   <si>
-    <t>119.96</t>
-  </si>
-  <si>
     <t>2019-06-30</t>
   </si>
   <si>
-    <t>122.63</t>
-  </si>
-  <si>
     <t>2019-07-31</t>
   </si>
   <si>
-    <t>125.49</t>
-  </si>
-  <si>
     <t>2019-08-31</t>
   </si>
   <si>
-    <t>114.58</t>
-  </si>
-  <si>
     <t>2019-09-30</t>
   </si>
   <si>
-    <t>109.58</t>
-  </si>
-  <si>
     <t>2019-10-31</t>
   </si>
   <si>
-    <t>112.36</t>
-  </si>
-  <si>
     <t>2019-11-30</t>
   </si>
   <si>
-    <t>105.81</t>
-  </si>
-  <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>105.9</t>
-  </si>
-  <si>
     <t>2020-01-31</t>
   </si>
   <si>
-    <t>103.15</t>
-  </si>
-  <si>
     <t>2020-02-29</t>
   </si>
   <si>
-    <t>100.21</t>
-  </si>
-  <si>
     <t>2020-03-31</t>
   </si>
   <si>
-    <t>75.6</t>
-  </si>
-  <si>
     <t>2020-04-30</t>
   </si>
   <si>
-    <t>67.31</t>
-  </si>
-  <si>
     <t>2020-05-31</t>
   </si>
   <si>
-    <t>68.82</t>
-  </si>
-  <si>
     <t>2020-06-30</t>
   </si>
   <si>
-    <t>68.99</t>
-  </si>
-  <si>
     <t>2020-07-31</t>
   </si>
   <si>
-    <t>71.31</t>
-  </si>
-  <si>
     <t>2020-08-31</t>
   </si>
   <si>
-    <t>71.45</t>
-  </si>
-  <si>
     <t>2020-09-30</t>
   </si>
   <si>
-    <t>72.04</t>
-  </si>
-  <si>
     <t>2020-10-31</t>
   </si>
   <si>
-    <t>74.74</t>
-  </si>
-  <si>
     <t>2020-11-30</t>
   </si>
   <si>
-    <t>80.49</t>
-  </si>
-  <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>84.82</t>
+    <t>Foreign Holdings in Brazil, USD bn</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>Go to chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1063,18 +591,1154 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF44546A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Brazil, USD bn</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Foreign Holdings in Brazil'!$A$4:$A$171</c:f>
+              <c:strCache>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>2007-01-31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007-02-28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007-03-31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2007-04-30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007-05-31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007-06-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2007-07-31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007-08-31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2007-09-30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2007-10-31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2007-11-30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007-12-31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008-01-31</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2008-02-29</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2008-03-31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008-04-30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008-05-31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2008-06-30</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2008-07-31</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2008-08-31</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2008-09-30</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2008-10-31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2008-11-30</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2008-12-31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2009-01-31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2009-02-28</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2009-03-31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2009-04-30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2009-05-31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009-06-30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2009-07-31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2009-08-31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2009-09-30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2009-10-31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2009-11-30</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2009-12-31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2010-01-31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2010-02-28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2010-03-31</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2010-04-30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2010-05-31</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2010-06-30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2010-07-31</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2010-08-31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2010-09-30</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2010-10-31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2010-11-30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2010-12-31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2011-01-31</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011-02-28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2011-03-31</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2011-04-30</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2011-05-31</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2011-06-30</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2011-07-31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2011-08-31</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2011-09-30</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2011-10-31</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2011-11-30</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2011-12-31</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2012-01-31</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2012-02-29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2012-03-31</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2012-04-30</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2012-05-31</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2012-06-30</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2012-07-31</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2012-08-31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2012-09-30</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2012-10-31</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2012-11-30</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2012-12-31</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2013-01-31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2013-02-28</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2013-03-31</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2013-04-30</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2013-05-31</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2013-06-30</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2013-07-31</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2013-08-31</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2013-09-30</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2013-10-31</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2013-11-30</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2013-12-31</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2014-01-31</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2014-02-28</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2014-03-31</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2014-04-30</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2014-05-31</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2014-06-30</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2014-07-31</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2014-08-31</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2014-09-30</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2014-10-31</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2014-11-30</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2014-12-31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2015-01-31</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2015-02-28</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2015-03-31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2015-04-30</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2015-05-31</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2015-06-30</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2015-07-31</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2015-08-31</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2015-09-30</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2015-10-31</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2015-11-30</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2015-12-31</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2016-01-31</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2016-02-29</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2016-03-31</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2016-04-30</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2016-05-31</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2016-06-30</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2016-07-31</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2016-08-31</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2016-09-30</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2016-10-31</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2016-11-30</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2016-12-31</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2017-01-31</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2017-02-28</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2017-03-31</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2017-04-30</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2017-05-31</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2017-06-30</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2017-07-31</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2017-08-31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2017-09-30</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2017-10-31</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2017-11-30</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2017-12-31</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2018-01-31</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2018-02-28</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2018-03-31</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2018-04-30</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2018-05-31</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2018-06-30</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018-07-31</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2018-08-31</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2018-09-30</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2018-10-31</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2018-11-30</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2018-12-31</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2019-01-31</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2019-02-28</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2019-03-31</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2019-04-30</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2019-05-31</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2019-06-30</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2019-07-31</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2019-08-31</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2019-09-30</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2019-10-31</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2019-11-30</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2019-12-31</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-01-31</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-02-29</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-03-31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-04-30</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-05-31</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-06-30</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-07-31</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-31</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-09-30</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-10-31</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-11-30</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-12-31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Foreign Holdings in Brazil'!$B$4:$B$171</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="168"/>
+                <c:pt idx="0">
+                  <c:v>7.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.83</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.05</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.36</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.85</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36.87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.86</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60.87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>65.06</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>66.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70.73</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>69.25</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75.89</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>84.58</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>91.06</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>104.35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>104.81</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>103.42</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>109.81</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>108.56</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>112.34</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>118.45</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>120.69</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>122.91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>124.66</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>125.16</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>103.58</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>115.22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>110.41</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>108.38</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>117.68</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>121.74</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>117.84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>115.48</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>111.07</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>114.66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>114.97</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>116.89</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>120.25</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>125.59</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>121.66</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>128.19</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>134.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>135.19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>134.63</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>123.62</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>123.31</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>126.98</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>129.02</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>147.39</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>145.98</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>139.56</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>138.25</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>146.39</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>158.98</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>164.97</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>164.98</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>173.23</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>170.38</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>174.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>164.16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>168.65</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>164.27</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>153.13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>161.05</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>158.01</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>146.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>158.59</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>155.24</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>159.06</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>141.48</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>134.93</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>123.61</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>124.24</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>128.99</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>125.69</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>123.24</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>118.2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>128.26</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>135.13</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>126.13</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>144.91</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>141.44</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>137.43</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>134.07</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>135.72</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>126.31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>131.43</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>132.7</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>132.64</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>132.2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>133.98</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>130.13</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.09</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>132.42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>132.16</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>131.65</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129.38</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130.69</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>125.68</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132.59</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>131.89</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>125.57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>123.41</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>114.76</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>111.05</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>120.66</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>106.71</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>104.56</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>116.38</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>111.75</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>107.8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>118.76</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>121.02</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>117.54</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>118.43</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>119.96</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>122.63</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>125.49</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>114.58</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>109.58</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>112.36</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>105.81</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>103.15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>100.21</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>75.59999999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>67.31</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>68.81999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>68.98999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>71.31</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>71.45</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>72.04000000000001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>74.73999999999999</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>80.48999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84.81999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="50010001"/>
+        <c:axId val="50010002"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="50010001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50010002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50010001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1362,1365 +2026,1399 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B5">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6">
+        <v>10.19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>17.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10">
+        <v>27.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B11">
+        <v>28.53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B12">
+        <v>32.35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B13">
+        <v>35.76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B14">
+        <v>34.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B15">
+        <v>35.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16">
+        <v>36.05</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>40.15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>42.26</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>45.76</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>48.36</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>49.41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>58.85</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>58.08</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>48.5</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>38.26</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>36.87</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>39.17</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>37.4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>35.84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>35.84</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>36.86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>42.28</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>45.15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>48.07</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>51.65</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>60.87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>65.06</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>66.75</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>70.73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>69.25</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>75.89</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>79.8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>84.58</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>83.75</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>89.2</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>91.06</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>96.91</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>104.35</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>104.81</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>103.42</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>109.81</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>109.18</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>108.56</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>112.34</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>118.45</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>120.69</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>122.91</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>124.66</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>125.16</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>103.58</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>115.22</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>110.41</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>108.38</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>117.68</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>121.74</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>117.84</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>115.48</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>111.07</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>114.66</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>114.97</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>116.89</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>120.25</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>125.59</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>121.66</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>128.19</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>132.99</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>134.75</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>135.19</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" t="s">
-        <v>156</v>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>134.63</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" t="s">
-        <v>158</v>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>123.62</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>160</v>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>123.31</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>126.98</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>163</v>
-      </c>
-      <c r="B83" t="s">
-        <v>164</v>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>129.02</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>165</v>
-      </c>
-      <c r="B84" t="s">
-        <v>166</v>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>147.39</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" t="s">
-        <v>168</v>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>145.98</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" t="s">
-        <v>170</v>
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>139.56</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>171</v>
-      </c>
-      <c r="B87" t="s">
-        <v>172</v>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>138.25</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>173</v>
-      </c>
-      <c r="B88" t="s">
-        <v>174</v>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B89" t="s">
-        <v>176</v>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>146.39</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" t="s">
-        <v>178</v>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>158.98</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>179</v>
-      </c>
-      <c r="B91" t="s">
-        <v>180</v>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>164.97</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>181</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>164.98</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>183</v>
-      </c>
-      <c r="B93" t="s">
-        <v>184</v>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>173.23</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" t="s">
-        <v>186</v>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>170.38</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" t="s">
-        <v>188</v>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>174.5</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" t="s">
-        <v>190</v>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>164.16</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>191</v>
-      </c>
-      <c r="B97" t="s">
-        <v>192</v>
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>168.65</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>193</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>164.27</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>195</v>
-      </c>
-      <c r="B99" t="s">
-        <v>196</v>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>153.13</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>197</v>
-      </c>
-      <c r="B100" t="s">
-        <v>198</v>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>161.05</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>199</v>
-      </c>
-      <c r="B101" t="s">
-        <v>200</v>
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>158.01</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>201</v>
-      </c>
-      <c r="B102" t="s">
-        <v>202</v>
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>146.9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>158.59</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>205</v>
-      </c>
-      <c r="B104" t="s">
-        <v>206</v>
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>155.24</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>207</v>
-      </c>
-      <c r="B105" t="s">
-        <v>208</v>
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>159.06</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>209</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>141.48</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>211</v>
-      </c>
-      <c r="B107" t="s">
-        <v>212</v>
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>134.93</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>213</v>
-      </c>
-      <c r="B108" t="s">
-        <v>214</v>
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>123.61</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>124.24</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>217</v>
-      </c>
-      <c r="B110" t="s">
-        <v>218</v>
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>128.99</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>219</v>
-      </c>
-      <c r="B111" t="s">
-        <v>220</v>
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>125.69</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>221</v>
-      </c>
-      <c r="B112" t="s">
-        <v>222</v>
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>123.24</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>223</v>
-      </c>
-      <c r="B113" t="s">
-        <v>224</v>
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>118.2</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>225</v>
-      </c>
-      <c r="B114" t="s">
-        <v>226</v>
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>128.26</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>227</v>
-      </c>
-      <c r="B115" t="s">
-        <v>228</v>
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>135.13</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>229</v>
-      </c>
-      <c r="B116" t="s">
-        <v>230</v>
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>126.13</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>231</v>
-      </c>
-      <c r="B117" t="s">
-        <v>232</v>
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>144.91</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>233</v>
-      </c>
-      <c r="B118" t="s">
-        <v>234</v>
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>141.44</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>235</v>
-      </c>
-      <c r="B119" t="s">
-        <v>236</v>
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>137.43</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>237</v>
-      </c>
-      <c r="B120" t="s">
-        <v>238</v>
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>134.07</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>239</v>
-      </c>
-      <c r="B121" t="s">
-        <v>240</v>
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>135.72</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>241</v>
-      </c>
-      <c r="B122" t="s">
-        <v>242</v>
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>126.31</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>243</v>
-      </c>
-      <c r="B123" t="s">
-        <v>244</v>
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>131.43</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>245</v>
-      </c>
-      <c r="B124" t="s">
-        <v>246</v>
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>132.7</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>247</v>
-      </c>
-      <c r="B125" t="s">
-        <v>248</v>
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>132.64</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>249</v>
-      </c>
-      <c r="B126" t="s">
-        <v>250</v>
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>132.2</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>251</v>
-      </c>
-      <c r="B127" t="s">
-        <v>252</v>
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>133.98</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>253</v>
-      </c>
-      <c r="B128" t="s">
-        <v>254</v>
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>130.13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>255</v>
-      </c>
-      <c r="B129" t="s">
-        <v>256</v>
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>126.09</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>257</v>
-      </c>
-      <c r="B130" t="s">
-        <v>258</v>
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>132.42</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>259</v>
-      </c>
-      <c r="B131" t="s">
-        <v>260</v>
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>132.16</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>261</v>
-      </c>
-      <c r="B132" t="s">
-        <v>262</v>
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>131.65</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>263</v>
-      </c>
-      <c r="B133" t="s">
-        <v>264</v>
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>129.38</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>265</v>
-      </c>
-      <c r="B134" t="s">
-        <v>266</v>
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>130.69</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" t="s">
-        <v>268</v>
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>125.68</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>269</v>
-      </c>
-      <c r="B136" t="s">
-        <v>270</v>
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>132.59</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" t="s">
-        <v>272</v>
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>131.89</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>273</v>
-      </c>
-      <c r="B138" t="s">
-        <v>274</v>
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>125.57</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>275</v>
-      </c>
-      <c r="B139" t="s">
-        <v>276</v>
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>123.41</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>277</v>
-      </c>
-      <c r="B140" t="s">
-        <v>278</v>
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>114.76</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>279</v>
-      </c>
-      <c r="B141" t="s">
-        <v>280</v>
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>111.05</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>281</v>
-      </c>
-      <c r="B142" t="s">
-        <v>282</v>
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>120.66</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>283</v>
-      </c>
-      <c r="B143" t="s">
-        <v>284</v>
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>106.71</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>285</v>
-      </c>
-      <c r="B144" t="s">
-        <v>286</v>
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>104.56</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>287</v>
-      </c>
-      <c r="B145" t="s">
-        <v>288</v>
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>116.38</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>289</v>
-      </c>
-      <c r="B146" t="s">
-        <v>290</v>
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>111.75</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>291</v>
-      </c>
-      <c r="B147" t="s">
-        <v>292</v>
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>107.8</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>293</v>
-      </c>
-      <c r="B148" t="s">
-        <v>294</v>
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>118.76</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>295</v>
-      </c>
-      <c r="B149" t="s">
-        <v>296</v>
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>121.02</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>297</v>
-      </c>
-      <c r="B150" t="s">
-        <v>298</v>
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>117.54</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>299</v>
-      </c>
-      <c r="B151" t="s">
-        <v>300</v>
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>118.43</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>301</v>
-      </c>
-      <c r="B152" t="s">
-        <v>302</v>
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>119.96</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>303</v>
-      </c>
-      <c r="B153" t="s">
-        <v>304</v>
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>122.63</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>305</v>
-      </c>
-      <c r="B154" t="s">
-        <v>306</v>
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>125.49</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>307</v>
-      </c>
-      <c r="B155" t="s">
-        <v>308</v>
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>114.58</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>309</v>
-      </c>
-      <c r="B156" t="s">
-        <v>310</v>
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>109.58</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>311</v>
-      </c>
-      <c r="B157" t="s">
-        <v>312</v>
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>112.36</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>313</v>
-      </c>
-      <c r="B158" t="s">
-        <v>314</v>
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>105.81</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>315</v>
-      </c>
-      <c r="B159" t="s">
-        <v>316</v>
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>105.9</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>317</v>
-      </c>
-      <c r="B160" t="s">
-        <v>318</v>
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>103.15</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>319</v>
-      </c>
-      <c r="B161" t="s">
-        <v>320</v>
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>100.21</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>321</v>
-      </c>
-      <c r="B162" t="s">
-        <v>322</v>
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>323</v>
-      </c>
-      <c r="B163" t="s">
-        <v>324</v>
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>67.31</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>325</v>
-      </c>
-      <c r="B164" t="s">
-        <v>326</v>
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>68.81999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>327</v>
-      </c>
-      <c r="B165" t="s">
-        <v>328</v>
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>68.98999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>329</v>
-      </c>
-      <c r="B166" t="s">
-        <v>330</v>
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>71.31</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>331</v>
-      </c>
-      <c r="B167" t="s">
-        <v>332</v>
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>71.45</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>333</v>
-      </c>
-      <c r="B168" t="s">
-        <v>334</v>
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>72.04000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>335</v>
-      </c>
-      <c r="B169" t="s">
-        <v>336</v>
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>74.73999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>80.48999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>84.81999999999999</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M1" location="'Chart (Brazil)'!D4" display="Go to chart"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <conditionalFormatting sqref="A1:Y30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>nan</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>